--- a/StateTable.xlsx
+++ b/StateTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agashkov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\puppy\PagginationSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>restart</t>
   </si>
@@ -96,15 +96,6 @@
     <t>updateCacheNotEmpty</t>
   </si>
   <si>
-    <t>InitialProgress/CachedData</t>
-  </si>
-  <si>
-    <t>0, refresh-&gt;InitialProgress</t>
-  </si>
-  <si>
-    <t>0, refresh-&gt;CachedData</t>
-  </si>
-  <si>
     <t>InitialProgress*</t>
   </si>
   <si>
@@ -120,35 +111,26 @@
     <t>RestartProgress*</t>
   </si>
   <si>
-    <t>AllData/Data</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -  переход в новое стостояние</t>
   </si>
   <si>
-    <t xml:space="preserve"> -  условие которое зависит от выполения другого перехода в самого себя (0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  переход в самого себя с изменением внутреннего состояния</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -  переход в новое такоеже состояние (после перехода стейт будет исполнен) </t>
   </si>
   <si>
     <t xml:space="preserve"> - переход в самого себя (после перехода стейт не будет исполнен)</t>
+  </si>
+  <si>
+    <t>AllData/Data/EmptyError</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,23 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -204,7 +169,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,23 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,61 +246,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -630,7 +566,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -650,35 +586,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -686,75 +622,75 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>27</v>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -762,37 +698,37 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -800,503 +736,392 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17" t="s">
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
-      <c r="D21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
-      <c r="D24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1375,12 +1200,10 @@
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D23:I23"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/StateTable.xlsx
+++ b/StateTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>restart</t>
   </si>
@@ -75,16 +75,7 @@
     <t>RestartProgress</t>
   </si>
   <si>
-    <t>EmptyErrorRefresh</t>
-  </si>
-  <si>
-    <t>EmptyDataRefresh</t>
-  </si>
-  <si>
     <t>CachedData</t>
-  </si>
-  <si>
-    <t>CachedRefresh</t>
   </si>
   <si>
     <t>PageProgressFail</t>
@@ -273,9 +264,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -284,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -566,7 +557,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B5" sqref="B5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -612,10 +603,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -631,7 +622,7 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="6">
@@ -649,10 +640,10 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -664,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -691,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -702,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -746,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -784,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -813,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -822,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -837,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -881,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" thickTop="1" x14ac:dyDescent="0.3">
@@ -913,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K9" s="6">
         <v>0</v>
@@ -951,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>
@@ -965,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -1030,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1072,56 +1063,56 @@
       <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="D20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
